--- a/project/Q2_Result.xlsx
+++ b/project/Q2_Result.xlsx
@@ -8,22 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/GitHub/StackExchange_Analysis_Project/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A8ED2E-4CBF-0D4D-958C-9ED659C9E4D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4319C512-68F0-5143-A631-859CEDA6627C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="26820" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Count 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Count 27" sheetId="18" r:id="rId2"/>
+    <sheet name="Count 37" sheetId="19" r:id="rId3"/>
+    <sheet name="Count 2" sheetId="2" r:id="rId4"/>
+    <sheet name="Count 3" sheetId="3" r:id="rId5"/>
+    <sheet name="Count 4" sheetId="4" r:id="rId6"/>
+    <sheet name="Count 5" sheetId="5" r:id="rId7"/>
+    <sheet name="Count 6" sheetId="6" r:id="rId8"/>
+    <sheet name="Count 7" sheetId="7" r:id="rId9"/>
+    <sheet name="Count 8" sheetId="8" r:id="rId10"/>
+    <sheet name="Count 9" sheetId="9" r:id="rId11"/>
+    <sheet name="Count 10" sheetId="10" r:id="rId12"/>
+    <sheet name="Count 11" sheetId="11" r:id="rId13"/>
+    <sheet name="Count 13" sheetId="12" r:id="rId14"/>
+    <sheet name="Count 14" sheetId="13" r:id="rId15"/>
+    <sheet name="Count 16" sheetId="15" r:id="rId16"/>
+    <sheet name="Count 17" sheetId="17" r:id="rId17"/>
+    <sheet name="Count 21" sheetId="16" r:id="rId18"/>
+    <sheet name="Count 15" sheetId="14" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$349</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Count 1'!$A$1:$E$123</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="4">
   <si>
     <t>UserID</t>
   </si>
@@ -436,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E349"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2536,3854 +2554,4150 @@
         <v>401</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF956B0-0D60-2C49-8E37-D9BBFDB706A9}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>12493</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>442</v>
+      </c>
+      <c r="B3">
+        <v>455</v>
+      </c>
+      <c r="C3">
+        <v>14108</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>324.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1925</v>
+      </c>
+      <c r="B4">
+        <v>2969</v>
+      </c>
+      <c r="C4">
+        <v>703</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>272.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4551</v>
+      </c>
+      <c r="B5">
+        <v>5653</v>
+      </c>
+      <c r="C5">
+        <v>559</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>242.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5074</v>
+      </c>
+      <c r="B6">
+        <v>6191</v>
+      </c>
+      <c r="C6">
+        <v>2129</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>9266</v>
+      </c>
+      <c r="B7">
+        <v>10651</v>
+      </c>
+      <c r="C7">
+        <v>612</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>111.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>9332</v>
+      </c>
+      <c r="B8">
+        <v>10718</v>
+      </c>
+      <c r="C8">
+        <v>1922</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>358.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9746</v>
+      </c>
+      <c r="B9">
+        <v>11156</v>
+      </c>
+      <c r="C9">
+        <v>477</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>374.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236F8C2D-3DAB-6A4F-B28A-EA7331B5409E}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>152</v>
+      </c>
+      <c r="B2">
+        <v>157</v>
+      </c>
+      <c r="C2">
+        <v>1943</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>322.11111111111109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>378</v>
+      </c>
+      <c r="B3">
+        <v>391</v>
+      </c>
+      <c r="C3">
+        <v>2946</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>384.22222222222217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>704</v>
+      </c>
+      <c r="B4">
+        <v>1722</v>
+      </c>
+      <c r="C4">
+        <v>7898</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>112.3333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>970</v>
+      </c>
+      <c r="B5">
+        <v>1993</v>
+      </c>
+      <c r="C5">
+        <v>3771</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>170.2222222222222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B6">
+        <v>3057</v>
+      </c>
+      <c r="C6">
+        <v>2258</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>221.7777777777778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2123</v>
+      </c>
+      <c r="B7">
+        <v>3171</v>
+      </c>
+      <c r="C7">
+        <v>9419</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>364.88888888888891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7477</v>
+      </c>
+      <c r="B8">
+        <v>8671</v>
+      </c>
+      <c r="C8">
+        <v>5809</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>257.77777777777783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8019</v>
+      </c>
+      <c r="B9">
+        <v>9229</v>
+      </c>
+      <c r="C9">
+        <v>2959</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>223.2222222222222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9325</v>
+      </c>
+      <c r="B10">
+        <v>10711</v>
+      </c>
+      <c r="C10">
+        <v>826</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>556.55555555555554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10710</v>
+      </c>
+      <c r="B11">
+        <v>12145</v>
+      </c>
+      <c r="C11">
+        <v>1319</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>500.66666666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CC4819-1CA7-894A-8ABC-AE7B4594E660}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>8852</v>
+      </c>
+      <c r="B2">
+        <v>10208</v>
+      </c>
+      <c r="C2">
+        <v>2383</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>8882</v>
+      </c>
+      <c r="B3">
+        <v>10240</v>
+      </c>
+      <c r="C3">
+        <v>1777</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>270.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>11788</v>
+      </c>
+      <c r="B4">
+        <v>13264</v>
+      </c>
+      <c r="C4">
+        <v>1243</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>195.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>13181</v>
+      </c>
+      <c r="B5">
+        <v>15681</v>
+      </c>
+      <c r="C5">
+        <v>583</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C91D78-5BF8-9445-BBB5-DA343D4FEDB0}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>7347</v>
+      </c>
+      <c r="B2">
+        <v>8534</v>
+      </c>
+      <c r="C2">
+        <v>2741</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>341.45454545454538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>11937</v>
+      </c>
+      <c r="B3">
+        <v>13415</v>
+      </c>
+      <c r="C3">
+        <v>598</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50D4D69-F607-E54F-80EE-57F69DB2FDF5}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>585</v>
+      </c>
+      <c r="B2">
+        <v>1599</v>
+      </c>
+      <c r="C2">
+        <v>21035</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>490.15384615384608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1680</v>
+      </c>
+      <c r="B3">
+        <v>2718</v>
+      </c>
+      <c r="C3">
+        <v>1511</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>175.53846153846149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>8048</v>
+      </c>
+      <c r="B4">
+        <v>9259</v>
+      </c>
+      <c r="C4">
+        <v>3008</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>178.92307692307691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>8216</v>
+      </c>
+      <c r="B5">
+        <v>9437</v>
+      </c>
+      <c r="C5">
+        <v>3237</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>421.61538461538458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB4087D-0734-F54F-A691-D1899534388E}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>6652</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>229.57142857142861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1316</v>
+      </c>
+      <c r="B3">
+        <v>2347</v>
+      </c>
+      <c r="C3">
+        <v>9281</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>251.28571428571431</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62EBC53-A0A6-754B-8C20-04944C975BD4}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>9528</v>
+      </c>
+      <c r="B2">
+        <v>10928</v>
+      </c>
+      <c r="C2">
+        <v>651</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>292.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>11267</v>
+      </c>
+      <c r="B3">
+        <v>12720</v>
+      </c>
+      <c r="C3">
+        <v>914</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>333.0625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D262AEE3-89CC-ED4F-AA17-0544C1361837}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>28799</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>406.70588235294122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3478</v>
+      </c>
+      <c r="B3">
+        <v>4548</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>143.1764705882353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>9135</v>
+      </c>
+      <c r="B4">
+        <v>10513</v>
+      </c>
+      <c r="C4">
+        <v>1302</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>202.11764705882351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3756842D-2682-4342-A36D-F6F550FE8575}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>6900</v>
+      </c>
+      <c r="B2">
+        <v>8076</v>
+      </c>
+      <c r="C2">
+        <v>5383</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>402.85714285714278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>9079</v>
+      </c>
+      <c r="B3">
+        <v>10454</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>246.0952380952381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFF1F87-7A7B-C449-ABA3-3F8ABF26CABD}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>368</v>
+      </c>
+      <c r="B2">
+        <v>381</v>
+      </c>
+      <c r="C2">
+        <v>8383</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>588.79999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3821</v>
+      </c>
+      <c r="B3">
+        <v>4898</v>
+      </c>
+      <c r="C3">
+        <v>5684</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>463.53333333333342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4996</v>
+      </c>
+      <c r="B4">
+        <v>6109</v>
+      </c>
+      <c r="C4">
+        <v>8405</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>242.26666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE36FC02-4322-FC41-B74C-B5B3BB557C42}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2321</v>
+      </c>
+      <c r="B2">
+        <v>3375</v>
+      </c>
+      <c r="C2">
+        <v>6019</v>
+      </c>
+      <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>310.7037037037037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>5936</v>
+      </c>
+      <c r="B3">
+        <v>7080</v>
+      </c>
+      <c r="C3">
+        <v>3243</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>211.85185185185179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5F5557-358E-2042-93A7-778085DDCA25}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1107</v>
+      </c>
+      <c r="B2">
+        <v>2135</v>
+      </c>
+      <c r="C2">
+        <v>13048</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>606.72972972972968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>5670</v>
+      </c>
+      <c r="B3">
+        <v>6808</v>
+      </c>
+      <c r="C3">
+        <v>9198</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>364.59459459459458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A228B365-7D8F-784A-B679-560913ECE291}">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>136</v>
       </c>
-      <c r="B124">
+      <c r="B2">
         <v>141</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-      <c r="E124">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>203</v>
       </c>
-      <c r="B125">
+      <c r="B3">
         <v>210</v>
       </c>
-      <c r="C125">
+      <c r="C3">
         <v>421</v>
       </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-      <c r="E125">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>360</v>
       </c>
-      <c r="B126">
+      <c r="B4">
         <v>372</v>
       </c>
-      <c r="C126">
+      <c r="C4">
         <v>1293</v>
       </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>262.5</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>365</v>
       </c>
-      <c r="B127">
+      <c r="B5">
         <v>378</v>
       </c>
-      <c r="C127">
+      <c r="C5">
         <v>3436</v>
       </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
-      <c r="E127">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>685.5</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>402</v>
       </c>
-      <c r="B128">
+      <c r="B6">
         <v>415</v>
       </c>
-      <c r="C128">
+      <c r="C6">
         <v>299</v>
       </c>
-      <c r="D128">
-        <v>2</v>
-      </c>
-      <c r="E128">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>536</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>403</v>
       </c>
-      <c r="B129">
+      <c r="B7">
         <v>416</v>
       </c>
-      <c r="C129">
+      <c r="C7">
         <v>492</v>
       </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-      <c r="E129">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>166.5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>414</v>
       </c>
-      <c r="B130">
+      <c r="B8">
         <v>427</v>
       </c>
-      <c r="C130">
+      <c r="C8">
         <v>261</v>
       </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>448</v>
       </c>
-      <c r="B131">
+      <c r="B9">
         <v>461</v>
       </c>
-      <c r="C131">
+      <c r="C9">
         <v>638</v>
       </c>
-      <c r="D131">
-        <v>2</v>
-      </c>
-      <c r="E131">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>271.5</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>457</v>
       </c>
-      <c r="B132">
+      <c r="B10">
         <v>470</v>
       </c>
-      <c r="C132">
+      <c r="C10">
         <v>516</v>
       </c>
-      <c r="D132">
-        <v>2</v>
-      </c>
-      <c r="E132">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>222</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>475</v>
       </c>
-      <c r="B133">
+      <c r="B11">
         <v>488</v>
       </c>
-      <c r="C133">
+      <c r="C11">
         <v>5579</v>
       </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>949.5</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>533</v>
       </c>
-      <c r="B134">
+      <c r="B12">
         <v>547</v>
       </c>
-      <c r="C134">
+      <c r="C12">
         <v>865</v>
       </c>
-      <c r="D134">
-        <v>2</v>
-      </c>
-      <c r="E134">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>550</v>
       </c>
-      <c r="B135">
+      <c r="B13">
         <v>1563</v>
       </c>
-      <c r="C135">
+      <c r="C13">
         <v>367</v>
       </c>
-      <c r="D135">
-        <v>2</v>
-      </c>
-      <c r="E135">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
         <v>580.5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>647</v>
       </c>
-      <c r="B136">
+      <c r="B14">
         <v>1665</v>
       </c>
-      <c r="C136">
+      <c r="C14">
         <v>5421</v>
       </c>
-      <c r="D136">
-        <v>2</v>
-      </c>
-      <c r="E136">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>1801.5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>651</v>
       </c>
-      <c r="B137">
+      <c r="B15">
         <v>1669</v>
       </c>
-      <c r="C137">
+      <c r="C15">
         <v>969</v>
       </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="E137">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>314.5</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>740</v>
       </c>
-      <c r="B138">
+      <c r="B16">
         <v>1758</v>
       </c>
-      <c r="C138">
+      <c r="C16">
         <v>219</v>
       </c>
-      <c r="D138">
-        <v>2</v>
-      </c>
-      <c r="E138">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>535</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>820</v>
       </c>
-      <c r="B139">
+      <c r="B17">
         <v>1839</v>
       </c>
-      <c r="C139">
+      <c r="C17">
         <v>2707</v>
       </c>
-      <c r="D139">
-        <v>2</v>
-      </c>
-      <c r="E139">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>836</v>
       </c>
-      <c r="B140">
+      <c r="B18">
         <v>1856</v>
       </c>
-      <c r="C140">
+      <c r="C18">
         <v>5810</v>
       </c>
-      <c r="D140">
-        <v>2</v>
-      </c>
-      <c r="E140">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>334.5</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>899</v>
       </c>
-      <c r="B141">
+      <c r="B19">
         <v>1919</v>
       </c>
-      <c r="C141">
+      <c r="C19">
         <v>827</v>
       </c>
-      <c r="D141">
-        <v>2</v>
-      </c>
-      <c r="E141">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>664.5</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>1037</v>
       </c>
-      <c r="B142">
+      <c r="B20">
         <v>2061</v>
       </c>
-      <c r="C142">
+      <c r="C20">
         <v>334</v>
       </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>488</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>1589</v>
       </c>
-      <c r="B143">
+      <c r="B21">
         <v>2625</v>
       </c>
-      <c r="C143">
+      <c r="C21">
         <v>8987</v>
       </c>
-      <c r="D143">
-        <v>2</v>
-      </c>
-      <c r="E143">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>827</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>1601</v>
       </c>
-      <c r="B144">
+      <c r="B22">
         <v>2637</v>
       </c>
-      <c r="C144">
+      <c r="C22">
         <v>823</v>
       </c>
-      <c r="D144">
-        <v>2</v>
-      </c>
-      <c r="E144">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>1638</v>
       </c>
-      <c r="B145">
+      <c r="B23">
         <v>2675</v>
       </c>
-      <c r="C145">
+      <c r="C23">
         <v>741</v>
       </c>
-      <c r="D145">
-        <v>2</v>
-      </c>
-      <c r="E145">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>1826</v>
       </c>
-      <c r="B146">
+      <c r="B24">
         <v>2866</v>
       </c>
-      <c r="C146">
+      <c r="C24">
         <v>1322</v>
       </c>
-      <c r="D146">
-        <v>2</v>
-      </c>
-      <c r="E146">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
         <v>228.5</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>2133</v>
       </c>
-      <c r="B147">
+      <c r="B25">
         <v>3181</v>
       </c>
-      <c r="C147">
+      <c r="C25">
         <v>6475</v>
       </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
-      <c r="E147">
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>2333</v>
       </c>
-      <c r="B148">
+      <c r="B26">
         <v>3387</v>
       </c>
-      <c r="C148">
+      <c r="C26">
         <v>408</v>
       </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>2578</v>
       </c>
-      <c r="B149">
+      <c r="B27">
         <v>3640</v>
       </c>
-      <c r="C149">
+      <c r="C27">
         <v>327</v>
       </c>
-      <c r="D149">
-        <v>2</v>
-      </c>
-      <c r="E149">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
         <v>354</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>2956</v>
       </c>
-      <c r="B150">
+      <c r="B28">
         <v>4022</v>
       </c>
-      <c r="C150">
+      <c r="C28">
         <v>1946</v>
       </c>
-      <c r="D150">
-        <v>2</v>
-      </c>
-      <c r="E150">
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
         <v>451.5</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>2978</v>
       </c>
-      <c r="B151">
+      <c r="B29">
         <v>4044</v>
       </c>
-      <c r="C151">
+      <c r="C29">
         <v>1557</v>
       </c>
-      <c r="D151">
-        <v>2</v>
-      </c>
-      <c r="E151">
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
         <v>556.5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>3244</v>
       </c>
-      <c r="B152">
+      <c r="B30">
         <v>4313</v>
       </c>
-      <c r="C152">
+      <c r="C30">
         <v>148</v>
       </c>
-      <c r="D152">
-        <v>2</v>
-      </c>
-      <c r="E152">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
         <v>220.5</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>3557</v>
       </c>
-      <c r="B153">
+      <c r="B31">
         <v>4628</v>
       </c>
-      <c r="C153">
+      <c r="C31">
         <v>687</v>
       </c>
-      <c r="D153">
-        <v>2</v>
-      </c>
-      <c r="E153">
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
         <v>381</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>3594</v>
       </c>
-      <c r="B154">
+      <c r="B32">
         <v>4666</v>
       </c>
-      <c r="C154">
+      <c r="C32">
         <v>647</v>
       </c>
-      <c r="D154">
-        <v>2</v>
-      </c>
-      <c r="E154">
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <v>327.5</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>3726</v>
       </c>
-      <c r="B155">
+      <c r="B33">
         <v>4801</v>
       </c>
-      <c r="C155">
+      <c r="C33">
         <v>1294</v>
       </c>
-      <c r="D155">
-        <v>2</v>
-      </c>
-      <c r="E155">
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
         <v>442.5</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>3756</v>
       </c>
-      <c r="B156">
+      <c r="B34">
         <v>4831</v>
       </c>
-      <c r="C156">
+      <c r="C34">
         <v>1393</v>
       </c>
-      <c r="D156">
-        <v>2</v>
-      </c>
-      <c r="E156">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
         <v>440.5</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>4396</v>
       </c>
-      <c r="B157">
+      <c r="B35">
         <v>5494</v>
       </c>
-      <c r="C157">
+      <c r="C35">
         <v>717</v>
       </c>
-      <c r="D157">
-        <v>2</v>
-      </c>
-      <c r="E157">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
         <v>278.5</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>4623</v>
       </c>
-      <c r="B158">
+      <c r="B36">
         <v>5726</v>
       </c>
-      <c r="C158">
+      <c r="C36">
         <v>2047</v>
       </c>
-      <c r="D158">
-        <v>2</v>
-      </c>
-      <c r="E158">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
         <v>122</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>5117</v>
       </c>
-      <c r="B159">
+      <c r="B37">
         <v>6236</v>
       </c>
-      <c r="C159">
+      <c r="C37">
         <v>2033</v>
       </c>
-      <c r="D159">
-        <v>2</v>
-      </c>
-      <c r="E159">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
         <v>451</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>5350</v>
       </c>
-      <c r="B160">
+      <c r="B38">
         <v>6474</v>
       </c>
-      <c r="C160">
+      <c r="C38">
         <v>305</v>
       </c>
-      <c r="D160">
-        <v>2</v>
-      </c>
-      <c r="E160">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
         <v>368.5</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>6835</v>
       </c>
-      <c r="B161">
+      <c r="B39">
         <v>8011</v>
       </c>
-      <c r="C161">
+      <c r="C39">
         <v>274</v>
       </c>
-      <c r="D161">
-        <v>2</v>
-      </c>
-      <c r="E161">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
         <v>327</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>6980</v>
       </c>
-      <c r="B162">
+      <c r="B40">
         <v>8159</v>
       </c>
-      <c r="C162">
+      <c r="C40">
         <v>628</v>
       </c>
-      <c r="D162">
-        <v>2</v>
-      </c>
-      <c r="E162">
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
         <v>328.5</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>7682</v>
       </c>
-      <c r="B163">
+      <c r="B41">
         <v>8884</v>
       </c>
-      <c r="C163">
+      <c r="C41">
         <v>756</v>
       </c>
-      <c r="D163">
-        <v>2</v>
-      </c>
-      <c r="E163">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
         <v>585.5</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>8537</v>
       </c>
-      <c r="B164">
+      <c r="B42">
         <v>9858</v>
       </c>
-      <c r="C164">
+      <c r="C42">
         <v>488</v>
       </c>
-      <c r="D164">
-        <v>2</v>
-      </c>
-      <c r="E164">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
         <v>232.5</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>8592</v>
       </c>
-      <c r="B165">
+      <c r="B43">
         <v>9927</v>
       </c>
-      <c r="C165">
+      <c r="C43">
         <v>363</v>
       </c>
-      <c r="D165">
-        <v>2</v>
-      </c>
-      <c r="E165">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
         <v>438.5</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>9088</v>
       </c>
-      <c r="B166">
+      <c r="B44">
         <v>10464</v>
       </c>
-      <c r="C166">
+      <c r="C44">
         <v>359</v>
       </c>
-      <c r="D166">
-        <v>2</v>
-      </c>
-      <c r="E166">
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
         <v>228.5</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>9226</v>
       </c>
-      <c r="B167">
+      <c r="B45">
         <v>10608</v>
       </c>
-      <c r="C167">
+      <c r="C45">
         <v>299</v>
       </c>
-      <c r="D167">
-        <v>2</v>
-      </c>
-      <c r="E167">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
         <v>382.5</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>9514</v>
       </c>
-      <c r="B168">
+      <c r="B46">
         <v>10913</v>
       </c>
-      <c r="C168">
+      <c r="C46">
         <v>162</v>
       </c>
-      <c r="D168">
-        <v>2</v>
-      </c>
-      <c r="E168">
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
         <v>631.5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>9540</v>
       </c>
-      <c r="B169">
+      <c r="B47">
         <v>10940</v>
       </c>
-      <c r="C169">
+      <c r="C47">
         <v>86</v>
       </c>
-      <c r="D169">
-        <v>2</v>
-      </c>
-      <c r="E169">
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
         <v>645.5</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>9943</v>
       </c>
-      <c r="B170">
+      <c r="B48">
         <v>11359</v>
       </c>
-      <c r="C170">
+      <c r="C48">
         <v>297</v>
       </c>
-      <c r="D170">
-        <v>2</v>
-      </c>
-      <c r="E170">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
         <v>244</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>10346</v>
       </c>
-      <c r="B171">
+      <c r="B49">
         <v>11771</v>
       </c>
-      <c r="C171">
+      <c r="C49">
         <v>323</v>
       </c>
-      <c r="D171">
-        <v>2</v>
-      </c>
-      <c r="E171">
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
         <v>721.5</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>10367</v>
       </c>
-      <c r="B172">
+      <c r="B50">
         <v>11794</v>
       </c>
-      <c r="C172">
+      <c r="C50">
         <v>541</v>
       </c>
-      <c r="D172">
-        <v>2</v>
-      </c>
-      <c r="E172">
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
         <v>1760</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>10398</v>
       </c>
-      <c r="B173">
+      <c r="B51">
         <v>11825</v>
       </c>
-      <c r="C173">
+      <c r="C51">
         <v>129</v>
       </c>
-      <c r="D173">
-        <v>2</v>
-      </c>
-      <c r="E173">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
         <v>204.5</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>10469</v>
       </c>
-      <c r="B174">
+      <c r="B52">
         <v>11898</v>
       </c>
-      <c r="C174">
+      <c r="C52">
         <v>39</v>
       </c>
-      <c r="D174">
-        <v>2</v>
-      </c>
-      <c r="E174">
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
         <v>333.5</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>10532</v>
       </c>
-      <c r="B175">
+      <c r="B53">
         <v>11962</v>
       </c>
-      <c r="C175">
+      <c r="C53">
         <v>1168</v>
       </c>
-      <c r="D175">
-        <v>2</v>
-      </c>
-      <c r="E175">
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
         <v>466</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>10673</v>
       </c>
-      <c r="B176">
+      <c r="B54">
         <v>12107</v>
       </c>
-      <c r="C176">
+      <c r="C54">
         <v>582</v>
       </c>
-      <c r="D176">
-        <v>2</v>
-      </c>
-      <c r="E176">
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
         <v>289</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>10741</v>
       </c>
-      <c r="B177">
+      <c r="B55">
         <v>12178</v>
       </c>
-      <c r="C177">
+      <c r="C55">
         <v>71</v>
       </c>
-      <c r="D177">
-        <v>2</v>
-      </c>
-      <c r="E177">
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
         <v>159.5</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>10973</v>
       </c>
-      <c r="B178">
+      <c r="B56">
         <v>12421</v>
       </c>
-      <c r="C178">
+      <c r="C56">
         <v>202</v>
       </c>
-      <c r="D178">
-        <v>2</v>
-      </c>
-      <c r="E178">
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
         <v>490.5</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>11110</v>
       </c>
-      <c r="B179">
+      <c r="B57">
         <v>12560</v>
       </c>
-      <c r="C179">
+      <c r="C57">
         <v>129</v>
       </c>
-      <c r="D179">
-        <v>2</v>
-      </c>
-      <c r="E179">
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
         <v>414</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>11598</v>
       </c>
-      <c r="B180">
+      <c r="B58">
         <v>13068</v>
       </c>
-      <c r="C180">
+      <c r="C58">
         <v>544</v>
       </c>
-      <c r="D180">
-        <v>2</v>
-      </c>
-      <c r="E180">
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
         <v>191.5</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>12150</v>
       </c>
-      <c r="B181">
+      <c r="B59">
         <v>13628</v>
       </c>
-      <c r="C181">
+      <c r="C59">
         <v>241</v>
       </c>
-      <c r="D181">
-        <v>2</v>
-      </c>
-      <c r="E181">
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
         <v>474</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>12423</v>
       </c>
-      <c r="B182">
+      <c r="B60">
         <v>13909</v>
       </c>
-      <c r="C182">
+      <c r="C60">
         <v>258</v>
       </c>
-      <c r="D182">
-        <v>2</v>
-      </c>
-      <c r="E182">
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
         <v>733</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>12553</v>
       </c>
-      <c r="B183">
+      <c r="B61">
         <v>14045</v>
       </c>
-      <c r="C183">
+      <c r="C61">
         <v>424</v>
       </c>
-      <c r="D183">
-        <v>2</v>
-      </c>
-      <c r="E183">
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
         <v>692.5</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>13198</v>
       </c>
-      <c r="B184">
+      <c r="B62">
         <v>15699</v>
       </c>
-      <c r="C184">
+      <c r="C62">
         <v>35</v>
       </c>
-      <c r="D184">
-        <v>2</v>
-      </c>
-      <c r="E184">
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
         <v>200.5</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>13562</v>
       </c>
-      <c r="B185">
+      <c r="B63">
         <v>16074</v>
       </c>
-      <c r="C185">
+      <c r="C63">
         <v>239</v>
       </c>
-      <c r="D185">
-        <v>2</v>
-      </c>
-      <c r="E185">
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
         <v>226</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>13737</v>
       </c>
-      <c r="B186">
+      <c r="B64">
         <v>16263</v>
       </c>
-      <c r="C186">
+      <c r="C64">
         <v>1486</v>
       </c>
-      <c r="D186">
-        <v>2</v>
-      </c>
-      <c r="E186">
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
         <v>547.5</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500FEB02-A2D8-9448-8BBE-D37D7A681DFE}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>18</v>
       </c>
-      <c r="B187">
+      <c r="B2">
         <v>18</v>
       </c>
-      <c r="C187">
+      <c r="C2">
         <v>5603</v>
       </c>
-      <c r="D187">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E187">
+      <c r="E2">
         <v>380.66666666666669</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>63</v>
       </c>
-      <c r="B188">
+      <c r="B3">
         <v>65</v>
       </c>
-      <c r="C188">
+      <c r="C3">
         <v>2326</v>
       </c>
-      <c r="D188">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E188">
+      <c r="E3">
         <v>245.33333333333329</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>72</v>
       </c>
-      <c r="B189">
+      <c r="B4">
         <v>75</v>
       </c>
-      <c r="C189">
+      <c r="C4">
         <v>1941</v>
       </c>
-      <c r="D189">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E189">
+      <c r="E4">
         <v>495.33333333333331</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>85</v>
       </c>
-      <c r="B190">
+      <c r="B5">
         <v>88</v>
       </c>
-      <c r="C190">
+      <c r="C5">
         <v>2296</v>
       </c>
-      <c r="D190">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E190">
+      <c r="E5">
         <v>447</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>94</v>
       </c>
-      <c r="B191">
+      <c r="B6">
         <v>98</v>
       </c>
-      <c r="C191">
+      <c r="C6">
         <v>2819</v>
       </c>
-      <c r="D191">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E191">
+      <c r="E6">
         <v>166.66666666666671</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>98</v>
       </c>
-      <c r="B192">
+      <c r="B7">
         <v>102</v>
       </c>
-      <c r="C192">
+      <c r="C7">
         <v>7090</v>
       </c>
-      <c r="D192">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E192">
+      <c r="E7">
         <v>562.66666666666663</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>357</v>
       </c>
-      <c r="B193">
+      <c r="B8">
         <v>369</v>
       </c>
-      <c r="C193">
+      <c r="C8">
         <v>544</v>
       </c>
-      <c r="D193">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E193">
+      <c r="E8">
         <v>331</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>376</v>
       </c>
-      <c r="B194">
+      <c r="B9">
         <v>389</v>
       </c>
-      <c r="C194">
+      <c r="C9">
         <v>1114</v>
       </c>
-      <c r="D194">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="E194">
+      <c r="E9">
         <v>165.66666666666671</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>456</v>
       </c>
-      <c r="B195">
+      <c r="B10">
         <v>469</v>
       </c>
-      <c r="C195">
+      <c r="C10">
         <v>292</v>
       </c>
-      <c r="D195">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E195">
+      <c r="E10">
         <v>650</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>669</v>
       </c>
-      <c r="B196">
+      <c r="B11">
         <v>1687</v>
       </c>
-      <c r="C196">
+      <c r="C11">
         <v>447</v>
       </c>
-      <c r="D196">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E196">
+      <c r="E11">
         <v>188.66666666666671</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>1141</v>
       </c>
-      <c r="B197">
+      <c r="B12">
         <v>2169</v>
       </c>
-      <c r="C197">
+      <c r="C12">
         <v>525</v>
       </c>
-      <c r="D197">
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E197">
+      <c r="E12">
         <v>178.66666666666671</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>1366</v>
       </c>
-      <c r="B198">
+      <c r="B13">
         <v>2397</v>
       </c>
-      <c r="C198">
+      <c r="C13">
         <v>479</v>
       </c>
-      <c r="D198">
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E198">
+      <c r="E13">
         <v>502.33333333333331</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>1660</v>
       </c>
-      <c r="B199">
+      <c r="B14">
         <v>2697</v>
       </c>
-      <c r="C199">
+      <c r="C14">
         <v>663</v>
       </c>
-      <c r="D199">
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="E199">
+      <c r="E14">
         <v>229</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>2162</v>
       </c>
-      <c r="B200">
+      <c r="B15">
         <v>3211</v>
       </c>
-      <c r="C200">
+      <c r="C15">
         <v>816</v>
       </c>
-      <c r="D200">
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E200">
+      <c r="E15">
         <v>257</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>2190</v>
       </c>
-      <c r="B201">
+      <c r="B16">
         <v>3239</v>
       </c>
-      <c r="C201">
+      <c r="C16">
         <v>599</v>
       </c>
-      <c r="D201">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E201">
+      <c r="E16">
         <v>254.66666666666671</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>3017</v>
       </c>
-      <c r="B202">
+      <c r="B17">
         <v>4084</v>
       </c>
-      <c r="C202">
+      <c r="C17">
         <v>5601</v>
       </c>
-      <c r="D202">
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="E202">
+      <c r="E17">
         <v>418</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>3121</v>
       </c>
-      <c r="B203">
+      <c r="B18">
         <v>4188</v>
       </c>
-      <c r="C203">
+      <c r="C18">
         <v>11098</v>
       </c>
-      <c r="D203">
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="E203">
+      <c r="E18">
         <v>376.33333333333331</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>3592</v>
       </c>
-      <c r="B204">
+      <c r="B19">
         <v>4664</v>
       </c>
-      <c r="C204">
+      <c r="C19">
         <v>432</v>
       </c>
-      <c r="D204">
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="E204">
+      <c r="E19">
         <v>579.33333333333337</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>4058</v>
       </c>
-      <c r="B205">
+      <c r="B20">
         <v>5144</v>
       </c>
-      <c r="C205">
+      <c r="C20">
         <v>2382</v>
       </c>
-      <c r="D205">
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="E205">
+      <c r="E20">
         <v>1036.666666666667</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>4316</v>
       </c>
-      <c r="B206">
+      <c r="B21">
         <v>5412</v>
       </c>
-      <c r="C206">
+      <c r="C21">
         <v>263</v>
       </c>
-      <c r="D206">
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="E206">
+      <c r="E21">
         <v>269</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>4943</v>
       </c>
-      <c r="B207">
+      <c r="B22">
         <v>6054</v>
       </c>
-      <c r="C207">
+      <c r="C22">
         <v>4574</v>
       </c>
-      <c r="D207">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E207">
+      <c r="E22">
         <v>258.33333333333331</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>4980</v>
       </c>
-      <c r="B208">
+      <c r="B23">
         <v>6092</v>
       </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-      <c r="D208">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E208">
+      <c r="E23">
         <v>282</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>6901</v>
       </c>
-      <c r="B209">
+      <c r="B24">
         <v>8077</v>
       </c>
-      <c r="C209">
+      <c r="C24">
         <v>4309</v>
       </c>
-      <c r="D209">
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="E209">
+      <c r="E24">
         <v>750.33333333333337</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>7901</v>
       </c>
-      <c r="B210">
+      <c r="B25">
         <v>9110</v>
       </c>
-      <c r="C210">
+      <c r="C25">
         <v>258</v>
       </c>
-      <c r="D210">
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="E210">
+      <c r="E25">
         <v>178.33333333333329</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>7941</v>
       </c>
-      <c r="B211">
+      <c r="B26">
         <v>9151</v>
       </c>
-      <c r="C211">
+      <c r="C26">
         <v>248</v>
       </c>
-      <c r="D211">
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="E211">
+      <c r="E26">
         <v>282.33333333333331</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>9062</v>
       </c>
-      <c r="B212">
+      <c r="B27">
         <v>10435</v>
       </c>
-      <c r="C212">
+      <c r="C27">
         <v>222</v>
       </c>
-      <c r="D212">
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="E212">
+      <c r="E27">
         <v>160.33333333333329</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>9543</v>
       </c>
-      <c r="B213">
+      <c r="B28">
         <v>10943</v>
       </c>
-      <c r="C213">
+      <c r="C28">
         <v>29</v>
       </c>
-      <c r="D213">
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="E213">
+      <c r="E28">
         <v>354.33333333333331</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>9647</v>
       </c>
-      <c r="B214">
+      <c r="B29">
         <v>11051</v>
       </c>
-      <c r="C214">
+      <c r="C29">
         <v>199</v>
       </c>
-      <c r="D214">
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="E214">
+      <c r="E29">
         <v>284.66666666666669</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>10314</v>
       </c>
-      <c r="B215">
+      <c r="B30">
         <v>11738</v>
       </c>
-      <c r="C215">
+      <c r="C30">
         <v>2412</v>
       </c>
-      <c r="D215">
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="E215">
+      <c r="E30">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>10411</v>
       </c>
-      <c r="B216">
+      <c r="B31">
         <v>11838</v>
       </c>
-      <c r="C216">
+      <c r="C31">
         <v>459</v>
       </c>
-      <c r="D216">
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="E216">
+      <c r="E31">
         <v>256.33333333333331</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>10593</v>
       </c>
-      <c r="B217">
+      <c r="B32">
         <v>12025</v>
       </c>
-      <c r="C217">
+      <c r="C32">
         <v>173</v>
       </c>
-      <c r="D217">
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="E217">
+      <c r="E32">
         <v>400.33333333333331</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>10618</v>
       </c>
-      <c r="B218">
+      <c r="B33">
         <v>12050</v>
       </c>
-      <c r="C218">
+      <c r="C33">
         <v>131</v>
       </c>
-      <c r="D218">
+      <c r="D33">
         <v>3</v>
       </c>
-      <c r="E218">
+      <c r="E33">
         <v>223.33333333333329</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>10652</v>
       </c>
-      <c r="B219">
+      <c r="B34">
         <v>12085</v>
       </c>
-      <c r="C219">
+      <c r="C34">
         <v>2195</v>
       </c>
-      <c r="D219">
+      <c r="D34">
         <v>3</v>
       </c>
-      <c r="E219">
+      <c r="E34">
         <v>247</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>10670</v>
       </c>
-      <c r="B220">
+      <c r="B35">
         <v>12104</v>
       </c>
-      <c r="C220">
+      <c r="C35">
         <v>181</v>
       </c>
-      <c r="D220">
+      <c r="D35">
         <v>3</v>
       </c>
-      <c r="E220">
+      <c r="E35">
         <v>569.33333333333337</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>11138</v>
       </c>
-      <c r="B221">
+      <c r="B36">
         <v>12589</v>
       </c>
-      <c r="C221">
+      <c r="C36">
         <v>198</v>
       </c>
-      <c r="D221">
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="E221">
+      <c r="E36">
         <v>474</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>12146</v>
       </c>
-      <c r="B222">
+      <c r="B37">
         <v>13624</v>
       </c>
-      <c r="C222">
+      <c r="C37">
         <v>283</v>
       </c>
-      <c r="D222">
+      <c r="D37">
         <v>3</v>
       </c>
-      <c r="E222">
+      <c r="E37">
         <v>198</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>12212</v>
       </c>
-      <c r="B223">
+      <c r="B38">
         <v>13691</v>
       </c>
-      <c r="C223">
+      <c r="C38">
         <v>409</v>
       </c>
-      <c r="D223">
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="E223">
+      <c r="E38">
         <v>510.66666666666669</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>12937</v>
       </c>
-      <c r="B224">
+      <c r="B39">
         <v>14435</v>
       </c>
-      <c r="C224">
+      <c r="C39">
         <v>383</v>
       </c>
-      <c r="D224">
+      <c r="D39">
         <v>3</v>
       </c>
-      <c r="E224">
+      <c r="E39">
         <v>322.33333333333331</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>13247</v>
       </c>
-      <c r="B225">
+      <c r="B40">
         <v>15749</v>
       </c>
-      <c r="C225">
+      <c r="C40">
         <v>566</v>
       </c>
-      <c r="D225">
+      <c r="D40">
         <v>3</v>
       </c>
-      <c r="E225">
+      <c r="E40">
         <v>512</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>13398</v>
       </c>
-      <c r="B226">
+      <c r="B41">
         <v>15902</v>
       </c>
-      <c r="C226">
+      <c r="C41">
         <v>195</v>
       </c>
-      <c r="D226">
+      <c r="D41">
         <v>3</v>
       </c>
-      <c r="E226">
+      <c r="E41">
         <v>157</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>13429</v>
       </c>
-      <c r="B227">
+      <c r="B42">
         <v>15937</v>
       </c>
-      <c r="C227">
+      <c r="C42">
         <v>59</v>
       </c>
-      <c r="D227">
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="E227">
+      <c r="E42">
         <v>220.66666666666671</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>13716</v>
       </c>
-      <c r="B228">
+      <c r="B43">
         <v>16239</v>
       </c>
-      <c r="C228">
+      <c r="C43">
         <v>338</v>
       </c>
-      <c r="D228">
+      <c r="D43">
         <v>3</v>
       </c>
-      <c r="E228">
+      <c r="E43">
         <v>1006</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5431C3-C2A0-A349-94A9-927806FD13D7}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>473</v>
       </c>
-      <c r="B229">
+      <c r="B2">
         <v>486</v>
       </c>
-      <c r="C229">
+      <c r="C2">
         <v>4046</v>
       </c>
-      <c r="D229">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="E229">
+      <c r="E2">
         <v>782.5</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>979</v>
       </c>
-      <c r="B230">
+      <c r="B3">
         <v>2002</v>
       </c>
-      <c r="C230">
+      <c r="C3">
         <v>2841</v>
       </c>
-      <c r="D230">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E230">
+      <c r="E3">
         <v>260</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1053</v>
       </c>
-      <c r="B231">
+      <c r="B4">
         <v>2078</v>
       </c>
-      <c r="C231">
+      <c r="C4">
         <v>813</v>
       </c>
-      <c r="D231">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E231">
+      <c r="E4">
         <v>531.75</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>1095</v>
       </c>
-      <c r="B232">
+      <c r="B5">
         <v>2123</v>
       </c>
-      <c r="C232">
+      <c r="C5">
         <v>1765</v>
       </c>
-      <c r="D232">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E232">
+      <c r="E5">
         <v>515</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1769</v>
       </c>
-      <c r="B233">
+      <c r="B6">
         <v>2809</v>
       </c>
-      <c r="C233">
+      <c r="C6">
         <v>547</v>
       </c>
-      <c r="D233">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E233">
+      <c r="E6">
         <v>563.75</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2196</v>
       </c>
-      <c r="B234">
+      <c r="B7">
         <v>3245</v>
       </c>
-      <c r="C234">
+      <c r="C7">
         <v>525</v>
       </c>
-      <c r="D234">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E234">
+      <c r="E7">
         <v>870.5</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>2557</v>
       </c>
-      <c r="B235">
+      <c r="B8">
         <v>3619</v>
       </c>
-      <c r="C235">
+      <c r="C8">
         <v>2368</v>
       </c>
-      <c r="D235">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E235">
+      <c r="E8">
         <v>911.5</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>2627</v>
       </c>
-      <c r="B236">
+      <c r="B9">
         <v>3689</v>
       </c>
-      <c r="C236">
+      <c r="C9">
         <v>770</v>
       </c>
-      <c r="D236">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E236">
+      <c r="E9">
         <v>257.25</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>3330</v>
       </c>
-      <c r="B237">
+      <c r="B10">
         <v>4399</v>
       </c>
-      <c r="C237">
+      <c r="C10">
         <v>277</v>
       </c>
-      <c r="D237">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E237">
+      <c r="E10">
         <v>119.5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>4162</v>
       </c>
-      <c r="B238">
+      <c r="B11">
         <v>5253</v>
       </c>
-      <c r="C238">
+      <c r="C11">
         <v>3225</v>
       </c>
-      <c r="D238">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E238">
+      <c r="E11">
         <v>356</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>4406</v>
       </c>
-      <c r="B239">
+      <c r="B12">
         <v>5504</v>
       </c>
-      <c r="C239">
+      <c r="C12">
         <v>4116</v>
       </c>
-      <c r="D239">
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="E239">
+      <c r="E12">
         <v>176</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>4434</v>
       </c>
-      <c r="B240">
+      <c r="B13">
         <v>5534</v>
       </c>
-      <c r="C240">
+      <c r="C13">
         <v>2385</v>
       </c>
-      <c r="D240">
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="E240">
+      <c r="E13">
         <v>565.5</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>5096</v>
       </c>
-      <c r="B241">
+      <c r="B14">
         <v>6215</v>
       </c>
-      <c r="C241">
+      <c r="C14">
         <v>1420</v>
       </c>
-      <c r="D241">
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="E241">
+      <c r="E14">
         <v>299.25</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>5247</v>
       </c>
-      <c r="B242">
+      <c r="B15">
         <v>6371</v>
       </c>
-      <c r="C242">
+      <c r="C15">
         <v>1432</v>
       </c>
-      <c r="D242">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="E242">
+      <c r="E15">
         <v>710.75</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>5355</v>
       </c>
-      <c r="B243">
+      <c r="B16">
         <v>6479</v>
       </c>
-      <c r="C243">
+      <c r="C16">
         <v>501</v>
       </c>
-      <c r="D243">
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="E243">
+      <c r="E16">
         <v>365.25</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>6972</v>
       </c>
-      <c r="B244">
+      <c r="B17">
         <v>8151</v>
       </c>
-      <c r="C244">
+      <c r="C17">
         <v>226</v>
       </c>
-      <c r="D244">
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="E244">
+      <c r="E17">
         <v>196.75</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>7451</v>
       </c>
-      <c r="B245">
+      <c r="B18">
         <v>8641</v>
       </c>
-      <c r="C245">
+      <c r="C18">
         <v>2728</v>
       </c>
-      <c r="D245">
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="E245">
+      <c r="E18">
         <v>326.5</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>7503</v>
       </c>
-      <c r="B246">
+      <c r="B19">
         <v>8698</v>
       </c>
-      <c r="C246">
+      <c r="C19">
         <v>1287</v>
       </c>
-      <c r="D246">
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="E246">
+      <c r="E19">
         <v>245.75</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>8954</v>
       </c>
-      <c r="B247">
+      <c r="B20">
         <v>10317</v>
       </c>
-      <c r="C247">
+      <c r="C20">
         <v>1703</v>
       </c>
-      <c r="D247">
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="E247">
+      <c r="E20">
         <v>784.75</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>9149</v>
       </c>
-      <c r="B248">
+      <c r="B21">
         <v>10527</v>
       </c>
-      <c r="C248">
+      <c r="C21">
         <v>1719</v>
       </c>
-      <c r="D248">
+      <c r="D21">
         <v>4</v>
       </c>
-      <c r="E248">
+      <c r="E21">
         <v>206</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>9465</v>
       </c>
-      <c r="B249">
+      <c r="B22">
         <v>10861</v>
       </c>
-      <c r="C249">
+      <c r="C22">
         <v>131</v>
       </c>
-      <c r="D249">
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="E249">
+      <c r="E22">
         <v>134.75</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>9877</v>
       </c>
-      <c r="B250">
+      <c r="B23">
         <v>11291</v>
       </c>
-      <c r="C250">
+      <c r="C23">
         <v>2347</v>
       </c>
-      <c r="D250">
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="E250">
+      <c r="E23">
         <v>495.5</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>10260</v>
       </c>
-      <c r="B251">
+      <c r="B24">
         <v>11683</v>
       </c>
-      <c r="C251">
+      <c r="C24">
         <v>237</v>
       </c>
-      <c r="D251">
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="E251">
+      <c r="E24">
         <v>263.5</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>10560</v>
       </c>
-      <c r="B252">
+      <c r="B25">
         <v>11991</v>
       </c>
-      <c r="C252">
+      <c r="C25">
         <v>2071</v>
       </c>
-      <c r="D252">
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="E252">
+      <c r="E25">
         <v>359.5</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>10713</v>
       </c>
-      <c r="B253">
+      <c r="B26">
         <v>12148</v>
       </c>
-      <c r="C253">
+      <c r="C26">
         <v>234</v>
       </c>
-      <c r="D253">
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="E253">
+      <c r="E26">
         <v>770.25</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>10872</v>
       </c>
-      <c r="B254">
+      <c r="B27">
         <v>12313</v>
       </c>
-      <c r="C254">
+      <c r="C27">
         <v>633</v>
       </c>
-      <c r="D254">
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="E254">
+      <c r="E27">
         <v>262.75</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>11200</v>
       </c>
-      <c r="B255">
+      <c r="B28">
         <v>12652</v>
       </c>
-      <c r="C255">
+      <c r="C28">
         <v>41</v>
       </c>
-      <c r="D255">
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="E255">
+      <c r="E28">
         <v>241.5</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>11306</v>
       </c>
-      <c r="B256">
+      <c r="B29">
         <v>12763</v>
       </c>
-      <c r="C256">
+      <c r="C29">
         <v>466</v>
       </c>
-      <c r="D256">
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="E256">
+      <c r="E29">
         <v>488.25</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>11581</v>
       </c>
-      <c r="B257">
+      <c r="B30">
         <v>13051</v>
       </c>
-      <c r="C257">
+      <c r="C30">
         <v>2252</v>
       </c>
-      <c r="D257">
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="E257">
+      <c r="E30">
         <v>458.25</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>12085</v>
       </c>
-      <c r="B258">
+      <c r="B31">
         <v>13563</v>
       </c>
-      <c r="C258">
+      <c r="C31">
         <v>932</v>
       </c>
-      <c r="D258">
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="E258">
+      <c r="E31">
         <v>237.75</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>12187</v>
       </c>
-      <c r="B259">
+      <c r="B32">
         <v>13666</v>
       </c>
-      <c r="C259">
+      <c r="C32">
         <v>304</v>
       </c>
-      <c r="D259">
+      <c r="D32">
         <v>4</v>
       </c>
-      <c r="E259">
+      <c r="E32">
         <v>365.75</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>13111</v>
       </c>
-      <c r="B260">
+      <c r="B33">
         <v>15610</v>
       </c>
-      <c r="C260">
+      <c r="C33">
         <v>385</v>
       </c>
-      <c r="D260">
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="E260">
+      <c r="E33">
         <v>492.25</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE97AD3-8A9E-6E45-9D0D-3217E765A96F}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>749</v>
       </c>
-      <c r="B261">
+      <c r="B2">
         <v>1768</v>
       </c>
-      <c r="C261">
+      <c r="C2">
         <v>1334</v>
       </c>
-      <c r="D261">
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="E261">
+      <c r="E2">
         <v>701.8</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1351</v>
       </c>
-      <c r="B262">
+      <c r="B3">
         <v>2382</v>
       </c>
-      <c r="C262">
+      <c r="C3">
         <v>2232</v>
       </c>
-      <c r="D262">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="E262">
+      <c r="E3">
         <v>292.8</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1618</v>
       </c>
-      <c r="B263">
+      <c r="B4">
         <v>2654</v>
       </c>
-      <c r="C263">
+      <c r="C4">
         <v>942</v>
       </c>
-      <c r="D263">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E263">
+      <c r="E4">
         <v>280.60000000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2541</v>
       </c>
-      <c r="B264">
+      <c r="B5">
         <v>3601</v>
       </c>
-      <c r="C264">
+      <c r="C5">
         <v>2335</v>
       </c>
-      <c r="D264">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E264">
+      <c r="E5">
         <v>710.4</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4074</v>
       </c>
-      <c r="B265">
+      <c r="B6">
         <v>5160</v>
       </c>
-      <c r="C265">
+      <c r="C6">
         <v>1378</v>
       </c>
-      <c r="D265">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E265">
+      <c r="E6">
         <v>250.8</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>7401</v>
       </c>
-      <c r="B266">
+      <c r="B7">
         <v>8590</v>
       </c>
-      <c r="C266">
+      <c r="C7">
         <v>374</v>
       </c>
-      <c r="D266">
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="E266">
+      <c r="E7">
         <v>143.6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7507</v>
       </c>
-      <c r="B267">
+      <c r="B8">
         <v>8702</v>
       </c>
-      <c r="C267">
+      <c r="C8">
         <v>2349</v>
       </c>
-      <c r="D267">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="E267">
+      <c r="E8">
         <v>360</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8094</v>
       </c>
-      <c r="B268">
+      <c r="B9">
         <v>9307</v>
       </c>
-      <c r="C268">
+      <c r="C9">
         <v>279</v>
       </c>
-      <c r="D268">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E268">
+      <c r="E9">
         <v>543</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8095</v>
       </c>
-      <c r="B269">
+      <c r="B10">
         <v>9308</v>
       </c>
-      <c r="C269">
+      <c r="C10">
         <v>213</v>
       </c>
-      <c r="D269">
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="E269">
+      <c r="E10">
         <v>333.6</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9224</v>
       </c>
-      <c r="B270">
+      <c r="B11">
         <v>10605</v>
       </c>
-      <c r="C270">
+      <c r="C11">
         <v>4910</v>
       </c>
-      <c r="D270">
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="E270">
+      <c r="E11">
         <v>670.6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10364</v>
       </c>
-      <c r="B271">
+      <c r="B12">
         <v>11791</v>
       </c>
-      <c r="C271">
+      <c r="C12">
         <v>974</v>
       </c>
-      <c r="D271">
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E271">
+      <c r="E12">
         <v>356.2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>10622</v>
       </c>
-      <c r="B272">
+      <c r="B13">
         <v>12054</v>
       </c>
-      <c r="C272">
+      <c r="C13">
         <v>3153</v>
       </c>
-      <c r="D272">
+      <c r="D13">
         <v>5</v>
       </c>
-      <c r="E272">
+      <c r="E13">
         <v>580.79999999999995</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415A965-66B2-694B-9E4C-B3369B2E9CB6}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>779</v>
       </c>
-      <c r="B273">
+      <c r="B2">
         <v>1798</v>
       </c>
-      <c r="C273">
+      <c r="C2">
         <v>4563</v>
       </c>
-      <c r="D273">
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="E273">
+      <c r="E2">
         <v>385.5</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2327</v>
       </c>
-      <c r="B274">
+      <c r="B3">
         <v>3381</v>
       </c>
-      <c r="C274">
+      <c r="C3">
         <v>1321</v>
       </c>
-      <c r="D274">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E274">
+      <c r="E3">
         <v>424</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2905</v>
       </c>
-      <c r="B275">
+      <c r="B4">
         <v>3971</v>
       </c>
-      <c r="C275">
+      <c r="C4">
         <v>432</v>
       </c>
-      <c r="D275">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E275">
+      <c r="E4">
         <v>199.83333333333329</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>5030</v>
       </c>
-      <c r="B276">
+      <c r="B5">
         <v>6146</v>
       </c>
-      <c r="C276">
+      <c r="C5">
         <v>1254</v>
       </c>
-      <c r="D276">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E276">
+      <c r="E5">
         <v>493</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>6088</v>
       </c>
-      <c r="B277">
+      <c r="B6">
         <v>7238</v>
       </c>
-      <c r="C277">
+      <c r="C6">
         <v>846</v>
       </c>
-      <c r="D277">
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="E277">
+      <c r="E6">
         <v>552.66666666666663</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6147</v>
       </c>
-      <c r="B278">
+      <c r="B7">
         <v>7301</v>
       </c>
-      <c r="C278">
+      <c r="C7">
         <v>1755</v>
       </c>
-      <c r="D278">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E278">
+      <c r="E7">
         <v>250.33333333333329</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>9194</v>
       </c>
-      <c r="B279">
+      <c r="B8">
         <v>10573</v>
       </c>
-      <c r="C279">
+      <c r="C8">
         <v>1029</v>
       </c>
-      <c r="D279">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E279">
+      <c r="E8">
         <v>345.83333333333331</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>9433</v>
       </c>
-      <c r="B280">
+      <c r="B9">
         <v>10828</v>
       </c>
-      <c r="C280">
+      <c r="C9">
         <v>536</v>
       </c>
-      <c r="D280">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E280">
+      <c r="E9">
         <v>259.66666666666669</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9731</v>
       </c>
-      <c r="B281">
+      <c r="B10">
         <v>11140</v>
       </c>
-      <c r="C281">
+      <c r="C10">
         <v>187</v>
       </c>
-      <c r="D281">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E281">
+      <c r="E10">
         <v>241.16666666666671</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10236</v>
       </c>
-      <c r="B282">
+      <c r="B11">
         <v>11659</v>
       </c>
-      <c r="C282">
+      <c r="C11">
         <v>1339</v>
       </c>
-      <c r="D282">
+      <c r="D11">
         <v>6</v>
       </c>
-      <c r="E282">
+      <c r="E11">
         <v>444.83333333333331</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10737</v>
       </c>
-      <c r="B283">
+      <c r="B12">
         <v>12174</v>
       </c>
-      <c r="C283">
+      <c r="C12">
         <v>970</v>
       </c>
-      <c r="D283">
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="E283">
+      <c r="E12">
         <v>240.66666666666671</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11154</v>
       </c>
-      <c r="B284">
+      <c r="B13">
         <v>12606</v>
       </c>
-      <c r="C284">
+      <c r="C13">
         <v>2191</v>
       </c>
-      <c r="D284">
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="E284">
+      <c r="E13">
         <v>295</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12220</v>
       </c>
-      <c r="B285">
+      <c r="B14">
         <v>13699</v>
       </c>
-      <c r="C285">
+      <c r="C14">
         <v>142</v>
       </c>
-      <c r="D285">
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="E285">
+      <c r="E14">
         <v>217.33333333333329</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE8601B-C744-9E43-9993-B66000CB1020}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>542</v>
       </c>
-      <c r="B286">
+      <c r="B2">
         <v>556</v>
       </c>
-      <c r="C286">
+      <c r="C2">
         <v>5226</v>
       </c>
-      <c r="D286">
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="E286">
+      <c r="E2">
         <v>206.57142857142861</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>3963</v>
       </c>
-      <c r="B287">
+      <c r="B3">
         <v>5047</v>
       </c>
-      <c r="C287">
+      <c r="C3">
         <v>2203</v>
       </c>
-      <c r="D287">
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="E287">
+      <c r="E3">
         <v>252.57142857142861</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>8644</v>
       </c>
-      <c r="B288">
+      <c r="B4">
         <v>9991</v>
       </c>
-      <c r="C288">
+      <c r="C4">
         <v>423</v>
       </c>
-      <c r="D288">
+      <c r="D4">
         <v>7</v>
       </c>
-      <c r="E288">
+      <c r="E4">
         <v>231.28571428571431</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>9485</v>
       </c>
-      <c r="B289">
+      <c r="B5">
         <v>10883</v>
       </c>
-      <c r="C289">
+      <c r="C5">
         <v>1683</v>
       </c>
-      <c r="D289">
+      <c r="D5">
         <v>7</v>
       </c>
-      <c r="E289">
+      <c r="E5">
         <v>507.28571428571428</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>11613</v>
       </c>
-      <c r="B290">
+      <c r="B6">
         <v>13083</v>
       </c>
-      <c r="C290">
+      <c r="C6">
         <v>3283</v>
       </c>
-      <c r="D290">
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="E290">
+      <c r="E6">
         <v>264.71428571428572</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>11751</v>
       </c>
-      <c r="B291">
+      <c r="B7">
         <v>13224</v>
       </c>
-      <c r="C291">
+      <c r="C7">
         <v>971</v>
       </c>
-      <c r="D291">
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="E291">
+      <c r="E7">
         <v>295</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>13391</v>
       </c>
-      <c r="B292">
+      <c r="B8">
         <v>15895</v>
       </c>
-      <c r="C292">
+      <c r="C8">
         <v>3798</v>
       </c>
-      <c r="D292">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="E292">
+      <c r="E8">
         <v>363.28571428571428</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
-        <v>36</v>
-      </c>
-      <c r="B293">
-        <v>36</v>
-      </c>
-      <c r="C293">
-        <v>12493</v>
-      </c>
-      <c r="D293">
-        <v>8</v>
-      </c>
-      <c r="E293">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
-        <v>442</v>
-      </c>
-      <c r="B294">
-        <v>455</v>
-      </c>
-      <c r="C294">
-        <v>14108</v>
-      </c>
-      <c r="D294">
-        <v>8</v>
-      </c>
-      <c r="E294">
-        <v>324.875</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
-        <v>1925</v>
-      </c>
-      <c r="B295">
-        <v>2969</v>
-      </c>
-      <c r="C295">
-        <v>703</v>
-      </c>
-      <c r="D295">
-        <v>8</v>
-      </c>
-      <c r="E295">
-        <v>272.625</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
-        <v>4551</v>
-      </c>
-      <c r="B296">
-        <v>5653</v>
-      </c>
-      <c r="C296">
-        <v>559</v>
-      </c>
-      <c r="D296">
-        <v>8</v>
-      </c>
-      <c r="E296">
-        <v>242.125</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
-        <v>5074</v>
-      </c>
-      <c r="B297">
-        <v>6191</v>
-      </c>
-      <c r="C297">
-        <v>2129</v>
-      </c>
-      <c r="D297">
-        <v>8</v>
-      </c>
-      <c r="E297">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
-        <v>9266</v>
-      </c>
-      <c r="B298">
-        <v>10651</v>
-      </c>
-      <c r="C298">
-        <v>612</v>
-      </c>
-      <c r="D298">
-        <v>8</v>
-      </c>
-      <c r="E298">
-        <v>111.25</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
-        <v>9332</v>
-      </c>
-      <c r="B299">
-        <v>10718</v>
-      </c>
-      <c r="C299">
-        <v>1922</v>
-      </c>
-      <c r="D299">
-        <v>8</v>
-      </c>
-      <c r="E299">
-        <v>358.5</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
-        <v>9746</v>
-      </c>
-      <c r="B300">
-        <v>11156</v>
-      </c>
-      <c r="C300">
-        <v>477</v>
-      </c>
-      <c r="D300">
-        <v>8</v>
-      </c>
-      <c r="E300">
-        <v>374.75</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
-        <v>152</v>
-      </c>
-      <c r="B301">
-        <v>157</v>
-      </c>
-      <c r="C301">
-        <v>1943</v>
-      </c>
-      <c r="D301">
-        <v>9</v>
-      </c>
-      <c r="E301">
-        <v>322.11111111111109</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
-        <v>378</v>
-      </c>
-      <c r="B302">
-        <v>391</v>
-      </c>
-      <c r="C302">
-        <v>2946</v>
-      </c>
-      <c r="D302">
-        <v>9</v>
-      </c>
-      <c r="E302">
-        <v>384.22222222222217</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
-        <v>704</v>
-      </c>
-      <c r="B303">
-        <v>1722</v>
-      </c>
-      <c r="C303">
-        <v>7898</v>
-      </c>
-      <c r="D303">
-        <v>9</v>
-      </c>
-      <c r="E303">
-        <v>112.3333333333333</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
-        <v>970</v>
-      </c>
-      <c r="B304">
-        <v>1993</v>
-      </c>
-      <c r="C304">
-        <v>3771</v>
-      </c>
-      <c r="D304">
-        <v>9</v>
-      </c>
-      <c r="E304">
-        <v>170.2222222222222</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B305">
-        <v>3057</v>
-      </c>
-      <c r="C305">
-        <v>2258</v>
-      </c>
-      <c r="D305">
-        <v>9</v>
-      </c>
-      <c r="E305">
-        <v>221.7777777777778</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
-        <v>2123</v>
-      </c>
-      <c r="B306">
-        <v>3171</v>
-      </c>
-      <c r="C306">
-        <v>9419</v>
-      </c>
-      <c r="D306">
-        <v>9</v>
-      </c>
-      <c r="E306">
-        <v>364.88888888888891</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
-        <v>7477</v>
-      </c>
-      <c r="B307">
-        <v>8671</v>
-      </c>
-      <c r="C307">
-        <v>5809</v>
-      </c>
-      <c r="D307">
-        <v>9</v>
-      </c>
-      <c r="E307">
-        <v>257.77777777777783</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
-        <v>8019</v>
-      </c>
-      <c r="B308">
-        <v>9229</v>
-      </c>
-      <c r="C308">
-        <v>2959</v>
-      </c>
-      <c r="D308">
-        <v>9</v>
-      </c>
-      <c r="E308">
-        <v>223.2222222222222</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
-        <v>9325</v>
-      </c>
-      <c r="B309">
-        <v>10711</v>
-      </c>
-      <c r="C309">
-        <v>826</v>
-      </c>
-      <c r="D309">
-        <v>9</v>
-      </c>
-      <c r="E309">
-        <v>556.55555555555554</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
-        <v>10710</v>
-      </c>
-      <c r="B310">
-        <v>12145</v>
-      </c>
-      <c r="C310">
-        <v>1319</v>
-      </c>
-      <c r="D310">
-        <v>9</v>
-      </c>
-      <c r="E310">
-        <v>500.66666666666669</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
-        <v>8852</v>
-      </c>
-      <c r="B311">
-        <v>10208</v>
-      </c>
-      <c r="C311">
-        <v>2383</v>
-      </c>
-      <c r="D311">
-        <v>10</v>
-      </c>
-      <c r="E311">
-        <v>114.8</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A312" s="1">
-        <v>8882</v>
-      </c>
-      <c r="B312">
-        <v>10240</v>
-      </c>
-      <c r="C312">
-        <v>1777</v>
-      </c>
-      <c r="D312">
-        <v>10</v>
-      </c>
-      <c r="E312">
-        <v>270.3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
-        <v>11788</v>
-      </c>
-      <c r="B313">
-        <v>13264</v>
-      </c>
-      <c r="C313">
-        <v>1243</v>
-      </c>
-      <c r="D313">
-        <v>10</v>
-      </c>
-      <c r="E313">
-        <v>195.5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" s="1">
-        <v>13181</v>
-      </c>
-      <c r="B314">
-        <v>15681</v>
-      </c>
-      <c r="C314">
-        <v>583</v>
-      </c>
-      <c r="D314">
-        <v>10</v>
-      </c>
-      <c r="E314">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="1">
-        <v>7347</v>
-      </c>
-      <c r="B315">
-        <v>8534</v>
-      </c>
-      <c r="C315">
-        <v>2741</v>
-      </c>
-      <c r="D315">
-        <v>11</v>
-      </c>
-      <c r="E315">
-        <v>341.45454545454538</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="1">
-        <v>11937</v>
-      </c>
-      <c r="B316">
-        <v>13415</v>
-      </c>
-      <c r="C316">
-        <v>598</v>
-      </c>
-      <c r="D316">
-        <v>11</v>
-      </c>
-      <c r="E316">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="1">
-        <v>3480</v>
-      </c>
-      <c r="B317">
-        <v>4550</v>
-      </c>
-      <c r="C317">
-        <v>7625</v>
-      </c>
-      <c r="D317">
-        <v>12</v>
-      </c>
-      <c r="E317">
-        <v>274.16666666666669</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
-        <v>585</v>
-      </c>
-      <c r="B318">
-        <v>1599</v>
-      </c>
-      <c r="C318">
-        <v>21035</v>
-      </c>
-      <c r="D318">
-        <v>13</v>
-      </c>
-      <c r="E318">
-        <v>490.15384615384608</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="1">
-        <v>1680</v>
-      </c>
-      <c r="B319">
-        <v>2718</v>
-      </c>
-      <c r="C319">
-        <v>1511</v>
-      </c>
-      <c r="D319">
-        <v>13</v>
-      </c>
-      <c r="E319">
-        <v>175.53846153846149</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
-        <v>8048</v>
-      </c>
-      <c r="B320">
-        <v>9259</v>
-      </c>
-      <c r="C320">
-        <v>3008</v>
-      </c>
-      <c r="D320">
-        <v>13</v>
-      </c>
-      <c r="E320">
-        <v>178.92307692307691</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
-        <v>8216</v>
-      </c>
-      <c r="B321">
-        <v>9437</v>
-      </c>
-      <c r="C321">
-        <v>3237</v>
-      </c>
-      <c r="D321">
-        <v>13</v>
-      </c>
-      <c r="E321">
-        <v>421.61538461538458</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" s="1">
-        <v>29</v>
-      </c>
-      <c r="B322">
-        <v>29</v>
-      </c>
-      <c r="C322">
-        <v>6652</v>
-      </c>
-      <c r="D322">
-        <v>14</v>
-      </c>
-      <c r="E322">
-        <v>229.57142857142861</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
-        <v>1316</v>
-      </c>
-      <c r="B323">
-        <v>2347</v>
-      </c>
-      <c r="C323">
-        <v>9281</v>
-      </c>
-      <c r="D323">
-        <v>14</v>
-      </c>
-      <c r="E323">
-        <v>251.28571428571431</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" s="1">
-        <v>368</v>
-      </c>
-      <c r="B324">
-        <v>381</v>
-      </c>
-      <c r="C324">
-        <v>8383</v>
-      </c>
-      <c r="D324">
-        <v>15</v>
-      </c>
-      <c r="E324">
-        <v>588.79999999999995</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="1">
-        <v>3821</v>
-      </c>
-      <c r="B325">
-        <v>4898</v>
-      </c>
-      <c r="C325">
-        <v>5684</v>
-      </c>
-      <c r="D325">
-        <v>15</v>
-      </c>
-      <c r="E325">
-        <v>463.53333333333342</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326" s="1">
-        <v>4996</v>
-      </c>
-      <c r="B326">
-        <v>6109</v>
-      </c>
-      <c r="C326">
-        <v>8405</v>
-      </c>
-      <c r="D326">
-        <v>15</v>
-      </c>
-      <c r="E326">
-        <v>242.26666666666671</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
-        <v>9528</v>
-      </c>
-      <c r="B327">
-        <v>10928</v>
-      </c>
-      <c r="C327">
-        <v>651</v>
-      </c>
-      <c r="D327">
-        <v>16</v>
-      </c>
-      <c r="E327">
-        <v>292.875</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
-        <v>11267</v>
-      </c>
-      <c r="B328">
-        <v>12720</v>
-      </c>
-      <c r="C328">
-        <v>914</v>
-      </c>
-      <c r="D328">
-        <v>16</v>
-      </c>
-      <c r="E328">
-        <v>333.0625</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
-        <v>59</v>
-      </c>
-      <c r="B329">
-        <v>61</v>
-      </c>
-      <c r="C329">
-        <v>28799</v>
-      </c>
-      <c r="D329">
-        <v>17</v>
-      </c>
-      <c r="E329">
-        <v>406.70588235294122</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
-        <v>3478</v>
-      </c>
-      <c r="B330">
-        <v>4548</v>
-      </c>
-      <c r="C330">
-        <v>1</v>
-      </c>
-      <c r="D330">
-        <v>17</v>
-      </c>
-      <c r="E330">
-        <v>143.1764705882353</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
-        <v>9135</v>
-      </c>
-      <c r="B331">
-        <v>10513</v>
-      </c>
-      <c r="C331">
-        <v>1302</v>
-      </c>
-      <c r="D331">
-        <v>17</v>
-      </c>
-      <c r="E331">
-        <v>202.11764705882351</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
-        <v>455</v>
-      </c>
-      <c r="B332">
-        <v>468</v>
-      </c>
-      <c r="C332">
-        <v>3133</v>
-      </c>
-      <c r="D332">
-        <v>19</v>
-      </c>
-      <c r="E332">
-        <v>444.89473684210532</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
-        <v>6900</v>
-      </c>
-      <c r="B333">
-        <v>8076</v>
-      </c>
-      <c r="C333">
-        <v>5383</v>
-      </c>
-      <c r="D333">
-        <v>21</v>
-      </c>
-      <c r="E333">
-        <v>402.85714285714278</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334" s="1">
-        <v>9079</v>
-      </c>
-      <c r="B334">
-        <v>10454</v>
-      </c>
-      <c r="C334">
-        <v>1</v>
-      </c>
-      <c r="D334">
-        <v>21</v>
-      </c>
-      <c r="E334">
-        <v>246.0952380952381</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335" s="1">
-        <v>101</v>
-      </c>
-      <c r="B335">
-        <v>106</v>
-      </c>
-      <c r="C335">
-        <v>15354</v>
-      </c>
-      <c r="D335">
-        <v>22</v>
-      </c>
-      <c r="E335">
-        <v>349.13636363636363</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
-        <v>9884</v>
-      </c>
-      <c r="B336">
-        <v>11298</v>
-      </c>
-      <c r="C336">
-        <v>1898</v>
-      </c>
-      <c r="D336">
-        <v>23</v>
-      </c>
-      <c r="E336">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" s="1">
-        <v>7734</v>
-      </c>
-      <c r="B337">
-        <v>8936</v>
-      </c>
-      <c r="C337">
-        <v>19714</v>
-      </c>
-      <c r="D337">
-        <v>25</v>
-      </c>
-      <c r="E337">
-        <v>299.08</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
-        <v>2321</v>
-      </c>
-      <c r="B338">
-        <v>3375</v>
-      </c>
-      <c r="C338">
-        <v>6019</v>
-      </c>
-      <c r="D338">
-        <v>27</v>
-      </c>
-      <c r="E338">
-        <v>310.7037037037037</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339" s="1">
-        <v>5936</v>
-      </c>
-      <c r="B339">
-        <v>7080</v>
-      </c>
-      <c r="C339">
-        <v>3243</v>
-      </c>
-      <c r="D339">
-        <v>27</v>
-      </c>
-      <c r="E339">
-        <v>211.85185185185179</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" s="1">
-        <v>8518</v>
-      </c>
-      <c r="B340">
-        <v>9837</v>
-      </c>
-      <c r="C340">
-        <v>12470</v>
-      </c>
-      <c r="D340">
-        <v>28</v>
-      </c>
-      <c r="E340">
-        <v>571.85714285714289</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="1">
-        <v>2429</v>
-      </c>
-      <c r="B341">
-        <v>3486</v>
-      </c>
-      <c r="C341">
-        <v>7230</v>
-      </c>
-      <c r="D341">
-        <v>32</v>
-      </c>
-      <c r="E341">
-        <v>411.15625</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
-        <v>2103</v>
-      </c>
-      <c r="B342">
-        <v>3150</v>
-      </c>
-      <c r="C342">
-        <v>8014</v>
-      </c>
-      <c r="D342">
-        <v>33</v>
-      </c>
-      <c r="E342">
-        <v>182.15151515151521</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
-        <v>1107</v>
-      </c>
-      <c r="B343">
-        <v>2135</v>
-      </c>
-      <c r="C343">
-        <v>13048</v>
-      </c>
-      <c r="D343">
-        <v>37</v>
-      </c>
-      <c r="E343">
-        <v>606.72972972972968</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
-        <v>5670</v>
-      </c>
-      <c r="B344">
-        <v>6808</v>
-      </c>
-      <c r="C344">
-        <v>9198</v>
-      </c>
-      <c r="D344">
-        <v>37</v>
-      </c>
-      <c r="E344">
-        <v>364.59459459459458</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
-        <v>57</v>
-      </c>
-      <c r="B345">
-        <v>59</v>
-      </c>
-      <c r="C345">
-        <v>48108</v>
-      </c>
-      <c r="D345">
-        <v>43</v>
-      </c>
-      <c r="E345">
-        <v>285.76744186046511</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
-        <v>6266</v>
-      </c>
-      <c r="B346">
-        <v>7425</v>
-      </c>
-      <c r="C346">
-        <v>16451</v>
-      </c>
-      <c r="D346">
-        <v>52</v>
-      </c>
-      <c r="E346">
-        <v>357.03846153846149</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
-        <v>3297</v>
-      </c>
-      <c r="B347">
-        <v>4366</v>
-      </c>
-      <c r="C347">
-        <v>2426</v>
-      </c>
-      <c r="D347">
-        <v>57</v>
-      </c>
-      <c r="E347">
-        <v>253.80701754385959</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
-        <v>4891</v>
-      </c>
-      <c r="B348">
-        <v>6001</v>
-      </c>
-      <c r="C348">
-        <v>23594</v>
-      </c>
-      <c r="D348">
-        <v>63</v>
-      </c>
-      <c r="E348">
-        <v>293.79365079365078</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="1">
-        <v>5527</v>
-      </c>
-      <c r="B349">
-        <v>6663</v>
-      </c>
-      <c r="C349">
-        <v>22036</v>
-      </c>
-      <c r="D349">
-        <v>81</v>
-      </c>
-      <c r="E349">
-        <v>345.7037037037037</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D349" xr:uid="{9C9C8960-2472-AD48-B736-8A7156301A06}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E349">
-      <sortCondition ref="D1:D349"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>